--- a/src/server/probabilities/1.xlsx
+++ b/src/server/probabilities/1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\actions_P\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\dars\TAs\AI2_TA\src\server\probabilities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BBEAFDA-12A7-4304-91EC-30C37E4E5503}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FBE57CD-8E55-4EF5-9FD0-E105EF1EE080}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="normal" sheetId="1" r:id="rId1"/>
@@ -380,8 +380,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:K10"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.265625" defaultRowHeight="24.4" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -1469,7 +1469,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7498E32B-0646-4260-9476-60B3C1593708}">
   <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>

--- a/src/server/probabilities/1.xlsx
+++ b/src/server/probabilities/1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\dars\TAs\AI2_TA\src\server\probabilities\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\dars\TAs\AI2_TA\AI2022\src\server\probabilities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FBE57CD-8E55-4EF5-9FD0-E105EF1EE080}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F5D59FE-5C20-4D0F-9D7A-77C786EE4BF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="normal" sheetId="1" r:id="rId1"/>
@@ -380,13 +380,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.265625" defaultRowHeight="24.4" customHeight="1" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="24.4" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:11" ht="24.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:11" ht="24.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -419,12 +419,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="24.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:11" ht="24.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="C2" s="1">
         <v>0</v>
@@ -436,10 +436,10 @@
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="G2" s="1">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="H2" s="1">
         <v>0</v>
@@ -454,7 +454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="24.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:11" ht="24.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -462,7 +462,7 @@
         <v>0</v>
       </c>
       <c r="C3" s="1">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="D3" s="1">
         <v>0</v>
@@ -477,10 +477,10 @@
         <v>0</v>
       </c>
       <c r="H3" s="1">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="I3" s="1">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
         <v>0</v>
@@ -489,7 +489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="24.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:11" ht="24.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -500,7 +500,7 @@
         <v>0</v>
       </c>
       <c r="D4" s="1">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="E4" s="1">
         <v>0</v>
@@ -524,7 +524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="24.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:11" ht="24.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -538,19 +538,19 @@
         <v>0</v>
       </c>
       <c r="E5" s="1">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="F5" s="1">
         <v>0</v>
       </c>
       <c r="G5" s="1">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="H5" s="1">
         <v>0</v>
       </c>
       <c r="I5" s="1">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1">
         <v>0</v>
@@ -559,12 +559,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="24.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:11" ht="24.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="1">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="C6" s="1">
         <v>0</v>
@@ -573,10 +573,10 @@
         <v>0</v>
       </c>
       <c r="E6" s="1">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="G6" s="1">
         <v>0</v>
@@ -594,18 +594,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="24.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:11" ht="24.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="1">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="C7" s="1">
         <v>0</v>
       </c>
       <c r="D7" s="1">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="E7" s="1">
         <v>0</v>
@@ -614,7 +614,7 @@
         <v>0</v>
       </c>
       <c r="G7" s="1">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="H7" s="1">
         <v>0</v>
@@ -629,7 +629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="24.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:11" ht="24.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -637,13 +637,13 @@
         <v>0</v>
       </c>
       <c r="C8" s="1">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="D8" s="1">
         <v>0</v>
       </c>
       <c r="E8" s="1">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
         <v>0</v>
@@ -652,7 +652,7 @@
         <v>0</v>
       </c>
       <c r="H8" s="1">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="I8" s="1">
         <v>0</v>
@@ -664,7 +664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="24.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:11" ht="24.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -672,10 +672,10 @@
         <v>0</v>
       </c>
       <c r="C9" s="1">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="D9" s="1">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="E9" s="1">
         <v>0</v>
@@ -690,7 +690,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="1">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="J9" s="1">
         <v>0</v>
@@ -699,7 +699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="24.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:11" ht="24.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -736,6 +736,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -743,13 +744,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9225EE5B-B479-4D78-890F-D0D18991D7E0}">
   <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:K10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="24.46484375" defaultRowHeight="31.25" customHeight="1" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="24.42578125" defaultRowHeight="31.35" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:11" ht="31.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:11" ht="31.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -782,12 +783,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="31.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:11" ht="31.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="C2" s="1">
         <v>0</v>
@@ -799,10 +800,10 @@
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="G2" s="1">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="H2" s="1">
         <v>0</v>
@@ -817,7 +818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="31.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:11" ht="31.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -825,7 +826,7 @@
         <v>0</v>
       </c>
       <c r="C3" s="1">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="D3" s="1">
         <v>0</v>
@@ -840,10 +841,10 @@
         <v>0</v>
       </c>
       <c r="H3" s="1">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="I3" s="1">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
         <v>0</v>
@@ -852,7 +853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="31.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:11" ht="31.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -863,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="D4" s="1">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="E4" s="1">
         <v>0</v>
@@ -887,7 +888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="31.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:11" ht="31.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -901,19 +902,19 @@
         <v>0</v>
       </c>
       <c r="E5" s="1">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="F5" s="1">
         <v>0</v>
       </c>
       <c r="G5" s="1">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="H5" s="1">
         <v>0</v>
       </c>
       <c r="I5" s="1">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1">
         <v>0</v>
@@ -922,12 +923,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="31.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:11" ht="31.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="1">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="C6" s="1">
         <v>0</v>
@@ -936,10 +937,10 @@
         <v>0</v>
       </c>
       <c r="E6" s="1">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="G6" s="1">
         <v>0</v>
@@ -957,18 +958,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="31.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:11" ht="31.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="1">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="C7" s="1">
         <v>0</v>
       </c>
       <c r="D7" s="1">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="E7" s="1">
         <v>0</v>
@@ -977,7 +978,7 @@
         <v>0</v>
       </c>
       <c r="G7" s="1">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="H7" s="1">
         <v>0</v>
@@ -992,7 +993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="31.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:11" ht="31.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -1000,13 +1001,13 @@
         <v>0</v>
       </c>
       <c r="C8" s="1">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="D8" s="1">
         <v>0</v>
       </c>
       <c r="E8" s="1">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
         <v>0</v>
@@ -1015,7 +1016,7 @@
         <v>0</v>
       </c>
       <c r="H8" s="1">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="I8" s="1">
         <v>0</v>
@@ -1027,7 +1028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="31.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:11" ht="31.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -1035,10 +1036,10 @@
         <v>0</v>
       </c>
       <c r="C9" s="1">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="D9" s="1">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="E9" s="1">
         <v>0</v>
@@ -1053,7 +1054,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="1">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="J9" s="1">
         <v>0</v>
@@ -1062,7 +1063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="31.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:11" ht="31.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -1107,12 +1108,12 @@
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.59765625" defaultRowHeight="30.4" customHeight="1" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="20.5703125" defaultRowHeight="30.4" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:11" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:11" ht="30.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1145,12 +1146,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:11" ht="30.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C2" s="1">
         <v>0</v>
@@ -1174,13 +1175,13 @@
         <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:11" ht="30.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1188,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="C3" s="1">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="D3" s="1">
         <v>0</v>
@@ -1209,13 +1210,13 @@
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:11" ht="30.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -1226,7 +1227,7 @@
         <v>0</v>
       </c>
       <c r="D4" s="1">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E4" s="1">
         <v>0</v>
@@ -1244,13 +1245,13 @@
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:11" ht="30.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -1264,7 +1265,7 @@
         <v>0</v>
       </c>
       <c r="E5" s="1">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="F5" s="1">
         <v>0</v>
@@ -1279,13 +1280,13 @@
         <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:11" ht="30.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -1302,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G6" s="1">
         <v>0</v>
@@ -1314,13 +1315,13 @@
         <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:11" ht="30.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -1340,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="G7" s="1">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H7" s="1">
         <v>0</v>
@@ -1349,13 +1350,13 @@
         <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:11" ht="30.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -1378,19 +1379,19 @@
         <v>0</v>
       </c>
       <c r="H8" s="1">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="I8" s="1">
         <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:11" ht="30.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -1416,16 +1417,16 @@
         <v>0</v>
       </c>
       <c r="I9" s="1">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="J9" s="1">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:11" ht="30.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -1469,13 +1470,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7498E32B-0646-4260-9476-60B3C1593708}">
   <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="15.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" ht="26.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:11" s="1" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1507,12 +1508,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="1" customFormat="1" ht="26.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:11" s="1" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C2" s="1">
         <v>0</v>
@@ -1539,10 +1540,10 @@
         <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" s="1" customFormat="1" ht="26.35" customHeight="1" x14ac:dyDescent="0.45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" s="1" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1550,7 +1551,7 @@
         <v>0</v>
       </c>
       <c r="C3" s="1">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="D3" s="1">
         <v>0</v>
@@ -1574,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" s="1" customFormat="1" ht="26.35" customHeight="1" x14ac:dyDescent="0.45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" s="1" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -1588,7 +1589,7 @@
         <v>0</v>
       </c>
       <c r="D4" s="1">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E4" s="1">
         <v>0</v>
@@ -1609,10 +1610,10 @@
         <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" s="1" customFormat="1" ht="26.35" customHeight="1" x14ac:dyDescent="0.45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" s="1" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -1626,7 +1627,7 @@
         <v>0</v>
       </c>
       <c r="E5" s="1">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="F5" s="1">
         <v>0</v>
@@ -1644,10 +1645,10 @@
         <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" s="1" customFormat="1" ht="26.35" customHeight="1" x14ac:dyDescent="0.45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" s="1" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -1664,7 +1665,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G6" s="1">
         <v>0</v>
@@ -1679,10 +1680,10 @@
         <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" s="1" customFormat="1" ht="26.35" customHeight="1" x14ac:dyDescent="0.45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" s="1" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -1702,7 +1703,7 @@
         <v>0</v>
       </c>
       <c r="G7" s="1">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H7" s="1">
         <v>0</v>
@@ -1714,10 +1715,10 @@
         <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" s="1" customFormat="1" ht="26.35" customHeight="1" x14ac:dyDescent="0.45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" s="1" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -1740,7 +1741,7 @@
         <v>0</v>
       </c>
       <c r="H8" s="1">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="I8" s="1">
         <v>0</v>
@@ -1749,10 +1750,10 @@
         <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" s="1" customFormat="1" ht="26.35" customHeight="1" x14ac:dyDescent="0.45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" s="1" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -1778,16 +1779,16 @@
         <v>0</v>
       </c>
       <c r="I9" s="1">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="J9" s="1">
         <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" s="1" customFormat="1" ht="26.35" customHeight="1" x14ac:dyDescent="0.45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" s="1" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -1816,10 +1817,10 @@
         <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
